--- a/pred_ohlcv/54_21/2020-01-19 MBL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 MBL ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-400125.1157</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-376271.1157</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-376271.1157</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-422424.1157</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-398995.1157</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-349546.1157</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-385605.1157</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-418048.1157</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-456736.1157</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-485484.1157</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-374065.8369</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-404730.8369</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-404730.8369</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-404730.8369</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-404730.8369</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-404730.8369</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-404730.8369</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-404730.8369</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-3578800.9716</v>
       </c>
       <c r="H400">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-3554226.9716</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-3576890.9716</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-3553644.9716</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-3553644.9716</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-3553644.9716</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-3553644.9716</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-3553644.9716</v>
       </c>
       <c r="H407">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-3553644.9716</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-2598789.4366</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-2629958.4366</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-2590108.4366</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-2545991.4366</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-2506304.4366</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-2544534.610513044</v>
       </c>
       <c r="H414">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-2568504.610513044</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-2568504.610513044</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-2523347.610513044</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-2523347.610513044</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-2554257.610513044</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-2554257.610513044</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-1983721.583747878</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-2018081.583747878</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-2018081.583747878</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-2018081.583747878</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-2018081.583747878</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-2018081.583747878</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-2018081.583747878</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-1965015.583747878</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-2008822.583747878</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-2008822.583747878</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-1976040.583747878</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-1939087.583747878</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-1939087.583747878</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>14675200.34781368</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>21820451.68771253</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>20197662.43341253</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>20423445.45071253</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>18969937.16181253</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>16378185.76241253</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>13427527.34711253</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>13717038.60241253</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>13672723.91241254</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>16314747.10743117</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>15071398.10743117</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>19108025.20363117</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>18604056.91293117</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>18043785.04133118</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>17132173.62673118</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>18469889.52753118</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>18295246.15743118</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>18613100.97323118</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>25703288.03366837</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>29006374.42826187</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>25981622.20872332</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>26986542.08662332</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>26162688.66922332</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>24414698.90512332</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>30440782.79142332</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>29699631.74252332</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>28284914.91582332</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>28617666.36952332</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>28559388.03222332</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>28533173.29662332</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>28913925.05262332</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>28879382.05262332</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>31858262.68066605</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>31840532.68066605</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>31560952.60166605</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>30329599.86536605</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>30058401.91436605</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>27402856.27546605</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>9310899.92816605</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>11043446.35906605</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -33360,7 +33360,7 @@
         <v>-25855359.76348077</v>
       </c>
       <c r="H1268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1269" spans="1:8">
@@ -33386,7 +33386,7 @@
         <v>-25907798.76348077</v>
       </c>
       <c r="H1269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1270" spans="1:8">
@@ -33412,7 +33412,7 @@
         <v>-25880429.76348077</v>
       </c>
       <c r="H1270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1271" spans="1:8">
@@ -33438,7 +33438,7 @@
         <v>-25852421.76348077</v>
       </c>
       <c r="H1271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1272" spans="1:8">
@@ -33464,7 +33464,7 @@
         <v>-25894017.76348077</v>
       </c>
       <c r="H1272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1273" spans="1:8">
@@ -33490,7 +33490,7 @@
         <v>-25989396.80748077</v>
       </c>
       <c r="H1273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1274" spans="1:8">
@@ -33516,7 +33516,7 @@
         <v>-25934516.83028077</v>
       </c>
       <c r="H1274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1275" spans="1:8">
@@ -33542,7 +33542,7 @@
         <v>-25934516.83028077</v>
       </c>
       <c r="H1275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1276" spans="1:8">
@@ -33568,7 +33568,7 @@
         <v>-25890961.83028077</v>
       </c>
       <c r="H1276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1277" spans="1:8">
@@ -33594,7 +33594,7 @@
         <v>-25925619.83028077</v>
       </c>
       <c r="H1277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1278" spans="1:8">
@@ -33620,7 +33620,7 @@
         <v>-25945193.83028077</v>
       </c>
       <c r="H1278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1279" spans="1:8">
@@ -33646,7 +33646,7 @@
         <v>-25945193.83028077</v>
       </c>
       <c r="H1279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1280" spans="1:8">
@@ -33672,7 +33672,7 @@
         <v>-25976210.83028077</v>
       </c>
       <c r="H1280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1281" spans="1:8">
@@ -33698,7 +33698,7 @@
         <v>-27279956.29488077</v>
       </c>
       <c r="H1281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1282" spans="1:8">
@@ -33724,7 +33724,7 @@
         <v>-27232475.29488077</v>
       </c>
       <c r="H1282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1283" spans="1:8">
@@ -33750,7 +33750,7 @@
         <v>-27261140.29488077</v>
       </c>
       <c r="H1283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1284" spans="1:8">
@@ -33776,7 +33776,7 @@
         <v>-27305335.44138077</v>
       </c>
       <c r="H1284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1285" spans="1:8">
@@ -33802,7 +33802,7 @@
         <v>-27305335.44138077</v>
       </c>
       <c r="H1285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1286" spans="1:8">
@@ -33828,7 +33828,7 @@
         <v>-27305335.44138077</v>
       </c>
       <c r="H1286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1287" spans="1:8">
@@ -33854,7 +33854,7 @@
         <v>-27305335.44138077</v>
       </c>
       <c r="H1287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1288" spans="1:8">
@@ -33880,7 +33880,7 @@
         <v>-27305335.44138077</v>
       </c>
       <c r="H1288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1289" spans="1:8">
@@ -33906,7 +33906,7 @@
         <v>-27305335.44138077</v>
       </c>
       <c r="H1289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1290" spans="1:8">
@@ -33932,7 +33932,7 @@
         <v>-27268174.44138077</v>
       </c>
       <c r="H1290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1291" spans="1:8">
@@ -33958,7 +33958,7 @@
         <v>-27240098.44138077</v>
       </c>
       <c r="H1291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1292" spans="1:8">
@@ -33984,7 +33984,7 @@
         <v>-27282212.44138077</v>
       </c>
       <c r="H1292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1293" spans="1:8">
@@ -34010,7 +34010,7 @@
         <v>-27257898.55038077</v>
       </c>
       <c r="H1293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1294" spans="1:8">
@@ -34036,7 +34036,7 @@
         <v>-27257898.55038077</v>
       </c>
       <c r="H1294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1295" spans="1:8">
@@ -34062,7 +34062,7 @@
         <v>-28459332.30708077</v>
       </c>
       <c r="H1295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1296" spans="1:8">
@@ -34088,7 +34088,7 @@
         <v>-29290749.62698077</v>
       </c>
       <c r="H1296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1297" spans="1:8">
@@ -34114,7 +34114,7 @@
         <v>-29012311.62698077</v>
       </c>
       <c r="H1297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1298" spans="1:8">
@@ -34140,7 +34140,7 @@
         <v>-29042625.62698077</v>
       </c>
       <c r="H1298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1299" spans="1:8">
@@ -34166,7 +34166,7 @@
         <v>-29064434.62698077</v>
       </c>
       <c r="H1299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1300" spans="1:8">
@@ -34192,7 +34192,7 @@
         <v>-29030253.62698077</v>
       </c>
       <c r="H1300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1301" spans="1:8">
@@ -34218,7 +34218,7 @@
         <v>-29079924.44388077</v>
       </c>
       <c r="H1301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1302" spans="1:8">
@@ -34244,7 +34244,7 @@
         <v>-29079924.44388077</v>
       </c>
       <c r="H1302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1303" spans="1:8">
@@ -34270,7 +34270,7 @@
         <v>-29079924.44388077</v>
       </c>
       <c r="H1303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1304" spans="1:8">
@@ -34296,7 +34296,7 @@
         <v>-29079924.44388077</v>
       </c>
       <c r="H1304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1305" spans="1:8">
@@ -34322,7 +34322,7 @@
         <v>-29101387.44388077</v>
       </c>
       <c r="H1305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1306" spans="1:8">
@@ -34348,7 +34348,7 @@
         <v>-29066777.44388077</v>
       </c>
       <c r="H1306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1307" spans="1:8">
@@ -34374,7 +34374,7 @@
         <v>-29115588.44388077</v>
       </c>
       <c r="H1307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1308" spans="1:8">
@@ -34400,7 +34400,7 @@
         <v>-29314541.49618077</v>
       </c>
       <c r="H1308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1309" spans="1:8">
@@ -34426,7 +34426,7 @@
         <v>-32225360.15458077</v>
       </c>
       <c r="H1309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1310" spans="1:8">
@@ -34452,7 +34452,7 @@
         <v>-32225360.15458077</v>
       </c>
       <c r="H1310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1311" spans="1:8">
@@ -34478,7 +34478,7 @@
         <v>-32225360.15458077</v>
       </c>
       <c r="H1311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1312" spans="1:8">
@@ -34504,7 +34504,7 @@
         <v>-32251178.15458077</v>
       </c>
       <c r="H1312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1313" spans="1:8">
@@ -34530,7 +34530,7 @@
         <v>-32251178.15458077</v>
       </c>
       <c r="H1313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1314" spans="1:8">
@@ -34556,7 +34556,7 @@
         <v>-32302211.15458077</v>
       </c>
       <c r="H1314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1315" spans="1:8">
@@ -34582,7 +34582,7 @@
         <v>-32302211.15458077</v>
       </c>
       <c r="H1315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1316" spans="1:8">
@@ -34608,7 +34608,7 @@
         <v>-32357310.15458077</v>
       </c>
       <c r="H1316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1317" spans="1:8">
@@ -34634,7 +34634,7 @@
         <v>-32315992.15458077</v>
       </c>
       <c r="H1317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1318" spans="1:8">
@@ -34660,7 +34660,7 @@
         <v>-32263679.15458077</v>
       </c>
       <c r="H1318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1319" spans="1:8">
@@ -34686,7 +34686,7 @@
         <v>-32225426.15458077</v>
       </c>
       <c r="H1319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1320" spans="1:8">
@@ -34712,7 +34712,7 @@
         <v>-32175509.15458077</v>
       </c>
       <c r="H1320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1321" spans="1:8">
@@ -34738,7 +34738,7 @@
         <v>-32175509.15458077</v>
       </c>
       <c r="H1321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1322" spans="1:8">
@@ -34764,7 +34764,7 @@
         <v>-32214868.15458077</v>
       </c>
       <c r="H1322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1323" spans="1:8">
@@ -34790,7 +34790,7 @@
         <v>-32214868.15458077</v>
       </c>
       <c r="H1323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1324" spans="1:8">
@@ -34816,7 +34816,7 @@
         <v>-32185408.15458077</v>
       </c>
       <c r="H1324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1325" spans="1:8">
@@ -34842,7 +34842,7 @@
         <v>-32225140.37378077</v>
       </c>
       <c r="H1325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1326" spans="1:8">
@@ -34868,7 +34868,7 @@
         <v>-32225140.37378077</v>
       </c>
       <c r="H1326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1327" spans="1:8">
@@ -34894,7 +34894,7 @@
         <v>-32177950.37378077</v>
       </c>
       <c r="H1327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1328" spans="1:8">
@@ -34920,7 +34920,7 @@
         <v>-32127272.37378077</v>
       </c>
       <c r="H1328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1329" spans="1:8">
@@ -34946,7 +34946,7 @@
         <v>-32097181.37378077</v>
       </c>
       <c r="H1329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1330" spans="1:8">
@@ -34972,7 +34972,7 @@
         <v>-32070540.37378077</v>
       </c>
       <c r="H1330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1331" spans="1:8">
@@ -34998,7 +34998,7 @@
         <v>-32124636.37378077</v>
       </c>
       <c r="H1331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1332" spans="1:8">
@@ -35024,7 +35024,7 @@
         <v>-32152188.37378077</v>
       </c>
       <c r="H1332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1333" spans="1:8">
@@ -35076,7 +35076,7 @@
         <v>-32152436.54918077</v>
       </c>
       <c r="H1334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1335" spans="1:8">
@@ -35128,7 +35128,7 @@
         <v>-31798042.14098077</v>
       </c>
       <c r="H1336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1337" spans="1:8">
@@ -35154,7 +35154,7 @@
         <v>-31741236.48458077</v>
       </c>
       <c r="H1337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1338" spans="1:8">
@@ -35180,7 +35180,7 @@
         <v>-31741236.48458077</v>
       </c>
       <c r="H1338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1339" spans="1:8">
@@ -35206,7 +35206,7 @@
         <v>-31705165.48458077</v>
       </c>
       <c r="H1339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1340" spans="1:8">
@@ -35232,7 +35232,7 @@
         <v>-31674405.48458077</v>
       </c>
       <c r="H1340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1341" spans="1:8">
@@ -35258,7 +35258,7 @@
         <v>-31625133.48458077</v>
       </c>
       <c r="H1341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1342" spans="1:8">
@@ -35284,7 +35284,7 @@
         <v>-31600450.48458077</v>
       </c>
       <c r="H1342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1343" spans="1:8">
@@ -35310,7 +35310,7 @@
         <v>-31567478.48458077</v>
       </c>
       <c r="H1343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1344" spans="1:8">
@@ -35336,7 +35336,7 @@
         <v>-31592835.48458077</v>
       </c>
       <c r="H1344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1345" spans="1:8">
@@ -35362,7 +35362,7 @@
         <v>-31558477.48458077</v>
       </c>
       <c r="H1345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1346" spans="1:8">
@@ -35388,7 +35388,7 @@
         <v>-31368725.82038077</v>
       </c>
       <c r="H1346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-19 MBL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 MBL ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-435681.1157</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-400125.1157</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-376271.1157</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-376271.1157</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-422424.1157</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-398995.1157</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-349546.1157</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-385605.1157</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-418048.1157</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-456736.1157</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-485484.1157</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-374065.8369</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-404730.8369</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-404730.8369</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-404730.8369</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-404730.8369</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-404730.8369</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-404730.8369</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-404730.8369</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-373298.8369</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-404029.8369</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-382617.8369</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-410943.8369</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-446220.8369</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-423251.8369</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-473277.8369</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-473277.8369</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-473277.8369</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-427597.8369</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-373613.8369</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-347520.8369</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-389053.8369</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-419201.8369</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-419201.8369</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-458477.8369</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-458477.8369</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-416425.8369</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-416425.8369</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-416425.8369</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-381475.8369</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-3553644.9716</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-3553644.9716</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-3553644.9716</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-3553644.9716</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-3553644.9716</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-3553644.9716</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-2598789.4366</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-2629958.4366</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-2590108.4366</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-2545991.4366</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-2506304.4366</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-2544534.610513044</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-2575026.610513044</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-2547772.610513044</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-2568504.610513044</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-2568504.610513044</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-2523347.610513044</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-2523347.610513044</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-2554257.610513044</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-2554257.610513044</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-1983721.583747878</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-2018081.583747878</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>14675200.34781368</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>21820451.68771253</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>20197662.43341253</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>13427527.34711253</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>13717038.60241253</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>13672723.91241254</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>16314747.10743117</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>15071398.10743117</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>19108025.20363117</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>18604056.91293117</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>18043785.04133118</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>17132173.62673118</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>18469889.52753118</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>18295246.15743118</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>18613100.97323118</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>26591290.17986837</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>25703288.03366837</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>29006374.42826187</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>25981622.20872332</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>26986542.08662332</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>26162688.66922332</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>24414698.90512332</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>30440782.79142332</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>29699631.74252332</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>28284914.91582332</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>28617666.36952332</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>28559388.03222332</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>28533173.29662332</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>33081302.25572332</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>31858262.68066605</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>31840532.68066605</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>31560952.60166605</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>30329599.86536605</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>30058401.91436605</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>27402856.27546605</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>23374087.78406605</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -33256,7 +33256,7 @@
         <v>-25702948.53188077</v>
       </c>
       <c r="H1264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1265" spans="1:8">
@@ -33282,7 +33282,7 @@
         <v>-25660687.53188077</v>
       </c>
       <c r="H1265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1266" spans="1:8">
@@ -33308,7 +33308,7 @@
         <v>-25660687.53188077</v>
       </c>
       <c r="H1266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1267" spans="1:8">
@@ -33334,7 +33334,7 @@
         <v>-25880779.76348077</v>
       </c>
       <c r="H1267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1268" spans="1:8">
